--- a/WINDOWS.xlsx
+++ b/WINDOWS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Windows </t>
   </si>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t>Session重新連接或斷開</t>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -284,14 +280,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -597,7 +593,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -612,13 +608,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -626,9 +622,9 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -643,9 +639,7 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>45</v>
-      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">

--- a/WINDOWS.xlsx
+++ b/WINDOWS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Windows </t>
   </si>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>Session重新連接或斷開</t>
+  </si>
+  <si>
+    <t>dfdszv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zvxcvx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -201,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -257,6 +265,15 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -267,7 +284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +305,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -604,7 +624,7 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -618,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -626,7 +646,7 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -641,7 +661,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>517</v>
       </c>
@@ -655,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -668,8 +688,11 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -682,8 +705,11 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>538</v>
       </c>
@@ -697,7 +723,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -711,7 +737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>612</v>
       </c>
@@ -725,7 +751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -739,7 +765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -753,7 +779,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -767,7 +793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -781,7 +807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>

--- a/WINDOWS.xlsx
+++ b/WINDOWS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Windows </t>
   </si>
@@ -151,14 +151,6 @@
   </si>
   <si>
     <t>Session重新連接或斷開</t>
-  </si>
-  <si>
-    <t>dfdszv</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zvxcvx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -209,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -258,33 +250,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,17 +269,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -624,29 +590,29 @@
     <col min="4" max="4" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -659,9 +625,8 @@
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>517</v>
       </c>
@@ -675,7 +640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -688,11 +653,8 @@
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -705,11 +667,8 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>538</v>
       </c>
@@ -723,7 +682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -737,7 +696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>612</v>
       </c>
@@ -751,7 +710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -765,7 +724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -779,7 +738,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -793,7 +752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -807,7 +766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
